--- a/Brain/ServiceNow/ServiceNow.xlsx
+++ b/Brain/ServiceNow/ServiceNow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Tóm tắt" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,14 @@
     <sheet name="Change display" sheetId="11" r:id="rId11"/>
     <sheet name="Number maintenance" sheetId="12" r:id="rId12"/>
     <sheet name="Groups &amp; Roles &amp; ACL" sheetId="13" r:id="rId13"/>
+    <sheet name="Switch to classic UI" sheetId="14" r:id="rId14"/>
+    <sheet name="Catalog" sheetId="15" r:id="rId15"/>
+    <sheet name="Service portal conf" sheetId="16" r:id="rId16"/>
+    <sheet name="Connect chat" sheetId="17" r:id="rId17"/>
+    <sheet name="Visual task boards" sheetId="18" r:id="rId18"/>
+    <sheet name="System properties" sheetId="19" r:id="rId19"/>
+    <sheet name="System diagnostics" sheetId="20" r:id="rId20"/>
+    <sheet name="Events" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Tạo nút</t>
   </si>
@@ -151,24 +159,35 @@
   </si>
   <si>
     <t>Solved: How to give write access to specific field on form - ServiceNow Community</t>
+  </si>
+  <si>
+    <t>How to Enable Next Experience UI (Polaris) in the ... - ServiceNow Community</t>
+  </si>
+  <si>
+    <t>stats.do</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>every user click will be logged in Event log</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,8 +195,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1540,6 +1566,459 @@
         <a:xfrm>
           <a:off x="609600" y="79438500"/>
           <a:ext cx="7390476" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>512914</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="11485714" cy="7866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="18257143" cy="6228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="18257143" cy="9238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18019</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="8247619" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427371</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>122887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3095625"/>
+          <a:ext cx="10028571" cy="7504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="18257143" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3810000"/>
+          <a:ext cx="18257143" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>36964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8096250"/>
+          <a:ext cx="18257143" cy="9085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>132262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="18257143" cy="8704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>132262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9286875"/>
+          <a:ext cx="18257143" cy="8704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="18257143" cy="9238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,12 +2732,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q159" sqref="Q159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2268,35 +2748,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2304,14 +2786,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2321,18 +2804,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2342,137 +2826,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="N416" sqref="N416"/>
+    <sheetView topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B297" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B298" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B339" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B340" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A416" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="A416" r:id="rId1" display="https://www.servicenow.com/community/secops-forum/how-to-give-write-access-to-specific-field-on-form/m-p/1329126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.servicenow.com/community/now-platform-articles/how-to-enable-next-experience-ui-polaris-in-the-servicenow-san/ta-p/2323366"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2485,10 +3077,55 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2500,14 +3137,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2521,24 +3159,25 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2552,8 +3191,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2567,8 +3207,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2582,24 +3223,25 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2612,8 +3254,9 @@
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2627,9 +3270,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +3280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2646,6 +3289,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
